--- a/data/tensile.xlsx
+++ b/data/tensile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanley\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021winter\Ti_program\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD99FE9-D5A2-4F09-BDEF-EB0FB0C6728E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D57088-EEB8-4663-8B1F-DDA229F15074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>E (Gpa)</t>
-  </si>
-  <si>
     <t>Ms (K)</t>
   </si>
   <si>
@@ -255,13 +252,17 @@
   </si>
   <si>
     <t xml:space="preserve">Kim, Kyong &amp; Kim, Hee Young &amp; Miyazaki, Shuichi. (2020). Effect of Zr Content on Phase Stability, Deformation Behavior, and Young’s Modulus in Ti–Nb–Zr Alloys. Materials. 13. 476. 10.3390/ma13020476. </t>
+  </si>
+  <si>
+    <t>E (GPa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,12 +667,12 @@
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -694,19 +695,19 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -729,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>54</v>
@@ -744,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>52</v>
@@ -782,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -814,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -846,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -878,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -910,7 +911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -942,7 +943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -974,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>133</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>134</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>152</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>153</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>154</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>155</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>156</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>157</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>158</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>159</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>160</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>161</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>162</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>163</v>
       </c>
@@ -5902,7 +5903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>164</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>165</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>166</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6388,6 +6389,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6399,31 +6401,31 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="4.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6431,10 +6433,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6442,10 +6444,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6453,10 +6455,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6464,10 +6466,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6475,10 +6477,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6486,10 +6488,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6497,10 +6499,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6508,10 +6510,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6519,10 +6521,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6530,10 +6532,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6541,10 +6543,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6552,10 +6554,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6563,10 +6565,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6574,10 +6576,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6585,10 +6587,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6596,10 +6598,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6607,10 +6609,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6618,10 +6620,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6629,10 +6631,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6640,10 +6642,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6651,10 +6653,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6662,10 +6664,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6673,10 +6675,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6684,10 +6686,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6695,10 +6697,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6706,10 +6708,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6717,10 +6719,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6728,10 +6730,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6739,10 +6741,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6750,10 +6752,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6761,10 +6763,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6772,10 +6774,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6783,10 +6785,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6794,10 +6796,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6805,10 +6807,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6816,10 +6818,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6827,10 +6829,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6838,10 +6840,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6849,10 +6851,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6860,10 +6862,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6871,10 +6873,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6882,10 +6884,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6893,10 +6895,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6904,10 +6906,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6915,10 +6917,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6926,10 +6928,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6937,10 +6939,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6948,10 +6950,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6959,10 +6961,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6970,10 +6972,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6981,10 +6983,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6992,10 +6994,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7003,10 +7005,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7014,10 +7016,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7025,10 +7027,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7036,10 +7038,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7047,10 +7049,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7058,10 +7060,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7069,10 +7071,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7080,10 +7082,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7091,10 +7093,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7102,10 +7104,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
